--- a/Points/points.xlsx
+++ b/Points/points.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\ing1\s2\dev web\projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ProjetDevWeb\projet_info_2025\Points\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CA07D0-5011-402A-878E-D3D11479AE9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B14EC2-AF66-4F20-A1ED-6484634FE30D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{DC1E1912-04DE-435C-AE47-0D79EFE3D1A6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>objets</t>
   </si>
@@ -36,18 +36,9 @@
     <t>panneau solaire</t>
   </si>
   <si>
-    <t>radiateur</t>
-  </si>
-  <si>
-    <t>télévision</t>
-  </si>
-  <si>
     <t>thermostat</t>
   </si>
   <si>
-    <t>caméra</t>
-  </si>
-  <si>
     <t>alarme</t>
   </si>
   <si>
@@ -136,6 +127,18 @@
   </si>
   <si>
     <t>Tous droits (y compris la configuration de la sécurité)</t>
+  </si>
+  <si>
+    <t>caméra qui n'existe pas</t>
+  </si>
+  <si>
+    <t>télévision qui n'existe pas</t>
+  </si>
+  <si>
+    <t>radiateur existe pas</t>
+  </si>
+  <si>
+    <t>va voir dans le code les objets qu'on a mis stp</t>
   </si>
 </sst>
 </file>
@@ -490,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66F5667-9613-464A-B1B4-F934088DCF93}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,19 +520,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -540,16 +543,16 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -557,22 +560,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>500</v>
@@ -580,22 +583,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>1000</v>
@@ -603,87 +606,92 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
